--- a/Sushanta/Invoice/MaxTechInvoice.xlsx
+++ b/Sushanta/Invoice/MaxTechInvoice.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BD7275B-EACA-4CC4-8153-5B1B22A91F6B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5A04C-FD55-4C45-99C7-A93C1BBFF07A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Help" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,9 +21,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Original Copy</t>
+  </si>
+  <si>
+    <t>GSTIN / UIN</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+  </si>
+  <si>
+    <t>S.N.</t>
+  </si>
+  <si>
+    <t>Description of Goods</t>
+  </si>
+  <si>
+    <t>HSN/SAC Code</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Amount (₹)</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Taxable Amt.</t>
+  </si>
+  <si>
+    <t>Total Tax</t>
+  </si>
+  <si>
+    <t>Terms  &amp; Conditions</t>
+  </si>
+  <si>
+    <t>1. Goods once sold will not be taken back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Interest @ 18% p.a. will be charged if the payment is not made </t>
+  </si>
+  <si>
+    <t>within the stipulated time.</t>
+  </si>
+  <si>
+    <t>3. All disputes are subject to jurisdiction of Agartala high court.</t>
+  </si>
+  <si>
+    <t>Receiver's Signature :</t>
+  </si>
+  <si>
+    <t>For Maxuse Techno Solutions</t>
+  </si>
+  <si>
+    <t>Authorised Signatory</t>
+  </si>
+  <si>
+    <t>Caution!</t>
+  </si>
+  <si>
+    <t>2. Only enter the Qty and Price. Amount will be computed automatically. Do NOT type anything manually in the Amount cell.</t>
+  </si>
+  <si>
+    <t>3. Also do not adjust size of any cell. it will damage the print border</t>
+  </si>
+  <si>
+    <t>1. Do not edit the blue marked cells. they are computed automatically</t>
+  </si>
+  <si>
+    <t>Customer details:</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Order No.</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>Rupees One Hundred and Eighteen only</t>
   </si>
   <si>
     <r>
@@ -57,7 +153,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -74,8 +170,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Vill. Uttar Ram Nagar, P.O. Airport, Distt. Tripura West
-Agartala - 799015
+North - Ram Nagar, Agartala, Tripura West
+PIN: 799015
 </t>
     </r>
     <r>
@@ -125,145 +221,10 @@
     </r>
   </si>
   <si>
-    <t>Party details:</t>
-  </si>
-  <si>
-    <t>Party PAN</t>
-  </si>
-  <si>
-    <t>Party Mobile</t>
-  </si>
-  <si>
-    <t>GSTIN / UIN</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Invoice No.</t>
-  </si>
-  <si>
-    <t>Dated</t>
-  </si>
-  <si>
-    <t>Place of Supply</t>
-  </si>
-  <si>
-    <t>Reverse Charge</t>
-  </si>
-  <si>
-    <t>GR/RR No.</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Vehicle No.</t>
-  </si>
-  <si>
-    <t>Station</t>
-  </si>
-  <si>
-    <t>E-Way Bill No.</t>
-  </si>
-  <si>
-    <t>S.N.</t>
-  </si>
-  <si>
-    <t>Description of Goods</t>
-  </si>
-  <si>
-    <t>HSN/SAC Code</t>
-  </si>
-  <si>
-    <t>Qty.</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Amount (₹)</t>
-  </si>
-  <si>
-    <t>Add: IGST</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>HSN/SAC</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>Taxable Amt.</t>
-  </si>
-  <si>
-    <t>IGST</t>
-  </si>
-  <si>
-    <t>Total Tax</t>
-  </si>
-  <si>
-    <t>Rupees XXXX</t>
-  </si>
-  <si>
-    <r>
-      <t>Bank Details  :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> XXXX</t>
-    </r>
-  </si>
-  <si>
-    <t>Terms  &amp; Conditions</t>
-  </si>
-  <si>
-    <t>1. Goods once sold will not be taken back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Interest @ 18% p.a. will be charged if the payment is not made </t>
-  </si>
-  <si>
-    <t>within the stipulated time.</t>
-  </si>
-  <si>
-    <t>3. All disputes are subject to jurisdiction of Agartala high court.</t>
-  </si>
-  <si>
-    <t>Receiver's Signature :</t>
-  </si>
-  <si>
-    <t>For Maxuse Techno Solutions</t>
-  </si>
-  <si>
-    <t>Authorised Signatory</t>
-  </si>
-  <si>
-    <t>Caution!</t>
-  </si>
-  <si>
-    <t>2. Only enter the Qty and Price. Amount will be computed automatically. Do NOT type anything manually in the Amount cell.</t>
-  </si>
-  <si>
-    <t>3. Also do not adjust size of any cell. it will damage the print border</t>
-  </si>
-  <si>
-    <t>1. Do not edit the blue marked cells. they are computed automatically</t>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -273,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,14 +244,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -331,13 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -354,23 +300,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -385,14 +316,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -521,32 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
@@ -627,12 +578,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -643,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -668,97 +692,98 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,30 +795,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,7 +968,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -941,7 +1003,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1126,15 +1188,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L46"/>
+  <dimension ref="A2:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
@@ -1142,536 +1204,508 @@
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="8" width="6" style="2" customWidth="1"/>
     <col min="9" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="D2" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="12"/>
       <c r="J2" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="11"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="11"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="11"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="11"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="11"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>2</v>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="17" t="s">
-        <v>7</v>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="17" t="s">
-        <v>8</v>
+      <c r="F11" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
-        <v>9</v>
+      <c r="F12" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="30"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="D16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="26"/>
       <c r="D17" s="20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="20" t="s">
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47" t="str">
+        <f>IF(I21="", "", H21*I21)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="32">
-        <v>10</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="36">
-        <v>280</v>
-      </c>
-      <c r="J22" s="42">
-        <f>IF(I22="", "", G22*I22)</f>
-        <v>2800</v>
+      <c r="B22" s="45"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47" t="str">
+        <f t="shared" ref="J22:J30" si="0">IF(I22="", "", H22*I22)</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="42" t="str">
-        <f t="shared" ref="J23:J31" si="0">IF(I23="", "", G23*I23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="42" t="str">
+      <c r="B23" s="45"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="42" t="str">
+    <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="42" t="str">
+    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="42" t="str">
+    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="45"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="42" t="str">
+    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="42" t="str">
+    <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="45"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="42" t="str">
+    <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="42" t="str">
+    <row r="30" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="61">
+        <f>SUM(J21:J30)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="43">
-        <f>SUM(J22:J31)</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="41">
-        <v>0.18</v>
-      </c>
-      <c r="J33" s="44">
-        <f>J32*I33</f>
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="53" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="56">
-        <f>SUM(G22:G31)</f>
+      <c r="B32" s="56"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="59">
+        <v>0.09</v>
+      </c>
+      <c r="J32" s="62">
+        <f>J31*I32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="56"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="57"/>
+      <c r="H33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0.09</v>
+      </c>
+      <c r="J33" s="63">
+        <f>J31*I33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="57">
-        <f>J32+J33</f>
-        <v>3304</v>
-      </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="46" t="s">
+      <c r="G34" s="60"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="64">
+        <f>SUM(J31:J33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="E35" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="83">
-        <f>I33</f>
-        <v>0.18</v>
-      </c>
-      <c r="D36" s="47">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="67">
+        <f>J31</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="67">
         <f>J32</f>
-        <v>2800</v>
-      </c>
-      <c r="E36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="67">
         <f>J33</f>
-        <v>504</v>
-      </c>
-      <c r="F36" s="47">
-        <f>J33</f>
-        <v>504</v>
-      </c>
-      <c r="G36" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="67">
+        <f>SUM(D36:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1682,9 +1716,9 @@
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
-        <v>31</v>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -1695,148 +1729,158 @@
       <c r="I38" s="23"/>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:12" s="53" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-    </row>
-    <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>34</v>
+    <row r="39" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="60" t="s">
-        <v>35</v>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="61" t="s">
-        <v>39</v>
-      </c>
+      <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>37</v>
-      </c>
+    <row r="44" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="24"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="J22:J34" name="Range1"/>
+    <protectedRange sqref="J21:J34" name="Range1"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="D2:H9"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D2:H9"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B49F4D-6CEC-4A6D-8246-B705DB41F1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1846,23 +1890,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>41</v>
+      <c r="A1" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
